--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dane" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -188,6 +189,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,18 +211,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial CE"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -394,11 +399,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,19 +420,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,19 +448,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,7 +476,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +484,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,23 +500,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,7 +536,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,11 +552,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,619 +579,619 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
         <v>44455</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3" t="n">
         <v>24163418908</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="4" t="n">
         <v>44454</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>44455</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>24163418908</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>44454</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>44455</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>24163418908</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>44454</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>44454</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <v>774752330064</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>44448</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>208866810000341</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>14121305640340</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>44454</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>774752330064</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="11" t="n">
         <v>44448</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>208866810000131</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>14121305640350</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="n">
         <v>44400</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <v>903423360043</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="24" t="n">
         <v>44397</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="24" t="n">
         <v>44400</v>
       </c>
-      <c r="I16" s="23" t="n">
+      <c r="I16" s="24" t="n">
         <v>44400</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="n">
         <v>44412</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="23" t="n">
         <v>522132182536</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="24" t="n">
         <v>44410</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="G17" s="28" t="n">
         <v>2113164</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="26" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="n">
         <v>44412</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="23" t="n">
         <v>522132182536</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="24" t="n">
         <v>44410</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="27" t="n">
+      <c r="G18" s="28" t="n">
         <v>2113164</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
         <v>44452</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="24" t="n">
         <v>44449</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="n">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="n">
         <v>931322443</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="26" t="s">
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="26" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="31"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="24" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="26" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="26" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="n">
         <v>44456</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <v>23106184875</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="24" t="n">
         <v>44455</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="26" t="s">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="37" t="n">
+      <c r="E26" s="38" t="n">
         <v>2219122326016</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38" t="s">
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1191,8 +1200,37 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Strona &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12 Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.74"/>
+  </cols>
+  <sheetData>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>